--- a/data_in/data_raw_manually_extracted/human_entered/S_123.xlsx
+++ b/data_in/data_raw_manually_extracted/human_entered/S_123.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pixie/Desktop/Data meeting/Data collection/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\2020\28_UNICEF\10_working_repo\data-etl\data_in\data_raw_manually_extracted\human_entered\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{325EB9B1-7F59-1F41-8B2B-6379734A78F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B797C65-570D-43B9-A363-AFFA060D11DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19780" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blueprint" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <externalReference r:id="rId6"/>
   </externalReferences>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Blueprint!$A$1:$AJ$1</definedName>
     <definedName name="Options_2.3Sb">[1]CRCE!$DQ$212:$DQ$219</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
@@ -2051,9 +2052,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2084,6 +2082,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -2530,37 +2531,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ197"/>
   <sheetViews>
-    <sheetView topLeftCell="K171" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="T195" sqref="T195:T196"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="2" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="15.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.1640625" customWidth="1"/>
-    <col min="5" max="5" width="17.5" customWidth="1"/>
-    <col min="7" max="7" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" customWidth="1"/>
+    <col min="5" max="5" width="26.6640625" customWidth="1"/>
+    <col min="7" max="7" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.77734375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="25.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.44140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.1640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="29.83203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="24.83203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="22.83203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="25.83203125" customWidth="1"/>
+    <col min="18" max="18" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="29.77734375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="24.77734375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="25.77734375" customWidth="1"/>
     <col min="24" max="24" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="27.1640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="19.1640625" customWidth="1"/>
-    <col min="27" max="27" width="8.83203125" customWidth="1"/>
+    <col min="25" max="25" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19.109375" customWidth="1"/>
+    <col min="27" max="27" width="8.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" s="1" customFormat="1">
@@ -2668,19 +2669,21 @@
       </c>
       <c r="AJ1" s="5"/>
     </row>
-    <row r="2" spans="1:36" ht="16">
+    <row r="2" spans="1:36" ht="15.6">
       <c r="A2" s="7" t="s">
         <v>24</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>368</v>
       </c>
-      <c r="D2" s="9"/>
+      <c r="D2" s="9">
+        <v>2019</v>
+      </c>
       <c r="E2" s="12" t="s">
         <v>582</v>
       </c>
       <c r="S2" s="6"/>
-      <c r="T2" s="29" t="s">
+      <c r="T2" s="28" t="s">
         <v>590</v>
       </c>
       <c r="Z2" s="2" t="s">
@@ -2717,3107 +2720,3495 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:36" ht="16">
+    <row r="3" spans="1:36" ht="15.6">
       <c r="A3" s="7" t="s">
         <v>85</v>
       </c>
       <c r="C3" t="s">
         <v>369</v>
       </c>
-      <c r="D3" s="9"/>
+      <c r="D3" s="9">
+        <v>2019</v>
+      </c>
       <c r="E3" s="12" t="s">
         <v>584</v>
       </c>
       <c r="S3" s="6"/>
-      <c r="T3" s="29" t="s">
+      <c r="T3" s="28" t="s">
         <v>590</v>
       </c>
       <c r="Z3" s="3"/>
     </row>
-    <row r="4" spans="1:36" ht="16">
+    <row r="4" spans="1:36" ht="15.6">
       <c r="A4" s="7" t="s">
         <v>89</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>370</v>
       </c>
-      <c r="D4" s="9"/>
+      <c r="D4" s="9">
+        <v>2019</v>
+      </c>
       <c r="E4" s="12" t="s">
         <v>583</v>
       </c>
       <c r="S4" s="6"/>
-      <c r="T4" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="5" spans="1:36" ht="16">
+      <c r="T4" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" ht="15.6">
       <c r="A5" s="7" t="s">
         <v>90</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>371</v>
       </c>
-      <c r="D5" s="9"/>
+      <c r="D5" s="9">
+        <v>2019</v>
+      </c>
       <c r="E5" s="12" t="s">
         <v>582</v>
       </c>
       <c r="S5" s="6"/>
-      <c r="T5" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="6" spans="1:36" ht="16">
+      <c r="T5" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" ht="15.6">
       <c r="A6" s="7" t="s">
         <v>91</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>372</v>
       </c>
-      <c r="D6" s="9"/>
+      <c r="D6" s="9">
+        <v>2019</v>
+      </c>
       <c r="E6" s="12" t="s">
         <v>584</v>
       </c>
       <c r="S6" s="6"/>
-      <c r="T6" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="7" spans="1:36" ht="16">
+      <c r="T6" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" ht="15.6">
       <c r="A7" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>373</v>
       </c>
-      <c r="D7" s="9"/>
+      <c r="D7" s="9">
+        <v>2019</v>
+      </c>
       <c r="E7" s="12" t="s">
         <v>564</v>
       </c>
       <c r="S7" s="6"/>
-      <c r="T7" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="8" spans="1:36" ht="16">
+      <c r="T7" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" ht="15.6">
       <c r="A8" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>374</v>
       </c>
-      <c r="D8" s="9"/>
+      <c r="D8" s="9">
+        <v>2019</v>
+      </c>
       <c r="E8" s="12" t="s">
         <v>582</v>
       </c>
       <c r="S8" s="6"/>
-      <c r="T8" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="9" spans="1:36" ht="16">
+      <c r="T8" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" ht="15.6">
       <c r="A9" s="7" t="s">
         <v>92</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>375</v>
       </c>
-      <c r="D9" s="9"/>
+      <c r="D9" s="9">
+        <v>2019</v>
+      </c>
       <c r="E9" s="12" t="s">
         <v>586</v>
       </c>
       <c r="S9" s="6"/>
-      <c r="T9" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="10" spans="1:36" ht="16">
+      <c r="T9" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" ht="15.6">
       <c r="A10" s="7" t="s">
         <v>93</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>376</v>
       </c>
-      <c r="D10" s="9"/>
+      <c r="D10" s="9">
+        <v>2019</v>
+      </c>
       <c r="E10" s="12" t="s">
         <v>583</v>
       </c>
       <c r="S10" s="6"/>
-      <c r="T10" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="11" spans="1:36" ht="16">
+      <c r="T10" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" ht="15.6">
       <c r="A11" s="7" t="s">
         <v>94</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>377</v>
       </c>
-      <c r="D11" s="9"/>
+      <c r="D11" s="9">
+        <v>2019</v>
+      </c>
       <c r="E11" s="12" t="s">
         <v>584</v>
       </c>
       <c r="S11" s="6"/>
-      <c r="T11" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="12" spans="1:36" ht="16">
+      <c r="T11" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36" ht="15.6">
       <c r="A12" s="7" t="s">
         <v>95</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>378</v>
       </c>
-      <c r="D12" s="9"/>
+      <c r="D12" s="9">
+        <v>2019</v>
+      </c>
       <c r="E12" s="12" t="s">
         <v>584</v>
       </c>
       <c r="S12" s="6"/>
-      <c r="T12" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="13" spans="1:36" ht="16">
+      <c r="T12" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" ht="15.6">
       <c r="A13" s="7" t="s">
         <v>96</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>379</v>
       </c>
-      <c r="D13" s="9"/>
+      <c r="D13" s="9">
+        <v>2019</v>
+      </c>
       <c r="E13" s="12" t="s">
         <v>564</v>
       </c>
       <c r="S13" s="6"/>
-      <c r="T13" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="14" spans="1:36" ht="16">
+      <c r="T13" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36" ht="15.6">
       <c r="A14" s="7" t="s">
         <v>97</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>380</v>
       </c>
-      <c r="D14" s="9"/>
+      <c r="D14" s="9">
+        <v>2019</v>
+      </c>
       <c r="E14" s="12" t="s">
         <v>582</v>
       </c>
       <c r="S14" s="6"/>
-      <c r="T14" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="15" spans="1:36" ht="16">
+      <c r="T14" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" ht="15.6">
       <c r="A15" s="7" t="s">
         <v>98</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>381</v>
       </c>
-      <c r="D15" s="9"/>
+      <c r="D15" s="9">
+        <v>2019</v>
+      </c>
       <c r="E15" s="12" t="s">
         <v>582</v>
       </c>
       <c r="S15" s="6"/>
-      <c r="T15" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="16" spans="1:36" ht="16">
+      <c r="T15" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36" ht="15.6">
       <c r="A16" s="7" t="s">
         <v>99</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>382</v>
       </c>
-      <c r="D16" s="9"/>
+      <c r="D16" s="9">
+        <v>2019</v>
+      </c>
       <c r="E16" s="12" t="s">
         <v>564</v>
       </c>
       <c r="S16" s="6"/>
-      <c r="T16" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" ht="16">
+      <c r="T16" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" ht="15.6">
       <c r="A17" s="7" t="s">
         <v>100</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>383</v>
       </c>
-      <c r="D17" s="9"/>
+      <c r="D17" s="9">
+        <v>2019</v>
+      </c>
       <c r="E17" s="12" t="s">
         <v>586</v>
       </c>
       <c r="S17" s="6"/>
-      <c r="T17" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" ht="16">
+      <c r="T17" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" ht="15.6">
       <c r="A18" s="7" t="s">
         <v>101</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>384</v>
       </c>
-      <c r="D18" s="9"/>
+      <c r="D18" s="9">
+        <v>2019</v>
+      </c>
       <c r="E18" s="12" t="s">
         <v>583</v>
       </c>
       <c r="S18" s="6"/>
-      <c r="T18" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" ht="16">
+      <c r="T18" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" ht="15.6">
       <c r="A19" s="7" t="s">
         <v>102</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>385</v>
       </c>
-      <c r="D19" s="9"/>
+      <c r="D19" s="9">
+        <v>2019</v>
+      </c>
       <c r="E19" s="12" t="s">
         <v>586</v>
       </c>
       <c r="S19" s="6"/>
-      <c r="T19" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" ht="16">
+      <c r="T19" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" ht="15.6">
       <c r="A20" s="7" t="s">
         <v>103</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>386</v>
       </c>
-      <c r="D20" s="9"/>
+      <c r="D20" s="9">
+        <v>2019</v>
+      </c>
       <c r="E20" s="12" t="s">
         <v>586</v>
       </c>
       <c r="S20" s="6"/>
-      <c r="T20" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" ht="16">
+      <c r="T20" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" ht="15.6">
       <c r="A21" s="7" t="s">
         <v>104</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>387</v>
       </c>
-      <c r="D21" s="9"/>
+      <c r="D21" s="9">
+        <v>2019</v>
+      </c>
       <c r="E21" s="12" t="s">
         <v>586</v>
       </c>
       <c r="S21" s="6"/>
-      <c r="T21" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" ht="16">
+      <c r="T21" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" ht="15.6">
       <c r="A22" s="7" t="s">
         <v>105</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>388</v>
       </c>
-      <c r="D22" s="9"/>
+      <c r="D22" s="9">
+        <v>2019</v>
+      </c>
       <c r="E22" s="12" t="s">
         <v>583</v>
       </c>
       <c r="S22" s="6"/>
-      <c r="T22" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" ht="16">
+      <c r="T22" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" ht="15.6">
       <c r="A23" s="7" t="s">
         <v>106</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>389</v>
       </c>
-      <c r="D23" s="9"/>
+      <c r="D23" s="9">
+        <v>2019</v>
+      </c>
       <c r="E23" s="12" t="s">
         <v>584</v>
       </c>
       <c r="S23" s="6"/>
-      <c r="T23" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" ht="16">
+      <c r="T23" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" ht="15.6">
       <c r="A24" s="7" t="s">
         <v>107</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>390</v>
       </c>
-      <c r="D24" s="9"/>
+      <c r="D24" s="9">
+        <v>2019</v>
+      </c>
       <c r="E24" s="12" t="s">
         <v>586</v>
       </c>
       <c r="S24" s="6"/>
-      <c r="T24" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" ht="16">
+      <c r="T24" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" ht="15.6">
       <c r="A25" s="7" t="s">
         <v>108</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>391</v>
       </c>
-      <c r="D25" s="9"/>
+      <c r="D25" s="9">
+        <v>2019</v>
+      </c>
       <c r="E25" s="12" t="s">
         <v>582</v>
       </c>
       <c r="S25" s="6"/>
-      <c r="T25" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" ht="16">
+      <c r="T25" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" ht="15.6">
       <c r="A26" s="7" t="s">
         <v>109</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>392</v>
       </c>
-      <c r="D26" s="9"/>
+      <c r="D26" s="9">
+        <v>2019</v>
+      </c>
       <c r="E26" s="12" t="s">
         <v>582</v>
       </c>
       <c r="S26" s="6"/>
-      <c r="T26" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" ht="16">
+      <c r="T26" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" ht="15.6">
       <c r="A27" s="7" t="s">
         <v>110</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>393</v>
       </c>
-      <c r="D27" s="9"/>
+      <c r="D27" s="9">
+        <v>2019</v>
+      </c>
       <c r="E27" s="12" t="s">
         <v>584</v>
       </c>
       <c r="S27" s="6"/>
-      <c r="T27" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" ht="16">
+      <c r="T27" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" ht="15.6">
       <c r="A28" s="7" t="s">
         <v>111</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="D28" s="9"/>
+      <c r="D28" s="9">
+        <v>2019</v>
+      </c>
       <c r="E28" s="12" t="s">
         <v>586</v>
       </c>
       <c r="S28" s="6"/>
-      <c r="T28" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" ht="16">
+      <c r="T28" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" ht="15.6">
       <c r="A29" s="7" t="s">
         <v>112</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>395</v>
       </c>
-      <c r="D29" s="9"/>
+      <c r="D29" s="9">
+        <v>2019</v>
+      </c>
       <c r="E29" s="12" t="s">
         <v>587</v>
       </c>
       <c r="S29" s="6"/>
-      <c r="T29" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" ht="16">
+      <c r="T29" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" ht="15.6">
       <c r="A30" s="7" t="s">
         <v>113</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>396</v>
       </c>
-      <c r="D30" s="9"/>
+      <c r="D30" s="9">
+        <v>2019</v>
+      </c>
       <c r="E30" s="12" t="s">
         <v>564</v>
       </c>
       <c r="S30" s="6"/>
-      <c r="T30" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" ht="16">
+      <c r="T30" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" ht="15.6">
       <c r="A31" s="7" t="s">
         <v>114</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>397</v>
       </c>
-      <c r="D31" s="9"/>
+      <c r="D31" s="9">
+        <v>2019</v>
+      </c>
       <c r="E31" s="12" t="s">
         <v>582</v>
       </c>
       <c r="S31" s="6"/>
-      <c r="T31" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" ht="16">
+      <c r="T31" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" ht="15.6">
       <c r="A32" s="7" t="s">
         <v>115</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>398</v>
       </c>
-      <c r="D32" s="9"/>
+      <c r="D32" s="9">
+        <v>2019</v>
+      </c>
       <c r="E32" s="12" t="s">
         <v>585</v>
       </c>
       <c r="S32" s="6"/>
-      <c r="T32" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20" ht="16">
+      <c r="T32" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" ht="15.6">
       <c r="A33" s="7" t="s">
         <v>116</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>399</v>
       </c>
-      <c r="D33" s="9"/>
+      <c r="D33" s="9">
+        <v>2019</v>
+      </c>
       <c r="E33" s="12" t="s">
         <v>583</v>
       </c>
       <c r="S33" s="6"/>
-      <c r="T33" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20" ht="16">
+      <c r="T33" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" ht="15.6">
       <c r="A34" s="7" t="s">
         <v>117</v>
       </c>
       <c r="C34" s="8" t="s">
         <v>400</v>
       </c>
-      <c r="D34" s="9"/>
+      <c r="D34" s="9">
+        <v>2019</v>
+      </c>
       <c r="E34" s="12" t="s">
         <v>587</v>
       </c>
       <c r="S34" s="6"/>
-      <c r="T34" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20" ht="16">
+      <c r="T34" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" ht="15.6">
       <c r="A35" s="7" t="s">
         <v>118</v>
       </c>
       <c r="C35" s="8" t="s">
         <v>401</v>
       </c>
-      <c r="D35" s="9"/>
+      <c r="D35" s="9">
+        <v>2019</v>
+      </c>
       <c r="E35" s="12" t="s">
         <v>587</v>
       </c>
       <c r="S35" s="6"/>
-      <c r="T35" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20" ht="16">
+      <c r="T35" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" ht="15.6">
       <c r="A36" s="7" t="s">
         <v>119</v>
       </c>
       <c r="C36" s="8" t="s">
         <v>402</v>
       </c>
-      <c r="D36" s="9"/>
+      <c r="D36" s="9">
+        <v>2019</v>
+      </c>
       <c r="E36" s="12" t="s">
         <v>583</v>
       </c>
       <c r="S36" s="6"/>
-      <c r="T36" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20" ht="16">
+      <c r="T36" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" ht="15.6">
       <c r="A37" s="7" t="s">
         <v>120</v>
       </c>
       <c r="C37" s="8" t="s">
         <v>403</v>
       </c>
-      <c r="D37" s="9"/>
+      <c r="D37" s="9">
+        <v>2019</v>
+      </c>
       <c r="E37" s="12" t="s">
         <v>583</v>
       </c>
       <c r="S37" s="6"/>
-      <c r="T37" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20" ht="16">
+      <c r="T37" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" ht="15.6">
       <c r="A38" s="7" t="s">
         <v>121</v>
       </c>
       <c r="C38" s="8" t="s">
         <v>404</v>
       </c>
-      <c r="D38" s="9"/>
+      <c r="D38" s="9">
+        <v>2019</v>
+      </c>
       <c r="E38" s="12" t="s">
         <v>582</v>
       </c>
       <c r="S38" s="6"/>
-      <c r="T38" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20" ht="16">
+      <c r="T38" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" ht="15.6">
       <c r="A39" s="7" t="s">
         <v>122</v>
       </c>
       <c r="C39" s="8" t="s">
         <v>405</v>
       </c>
-      <c r="D39" s="9"/>
+      <c r="D39" s="9">
+        <v>2019</v>
+      </c>
       <c r="E39" s="12" t="s">
         <v>564</v>
       </c>
       <c r="S39" s="6"/>
-      <c r="T39" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20" ht="16">
+      <c r="T39" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" ht="15.6">
       <c r="A40" s="7" t="s">
         <v>123</v>
       </c>
       <c r="C40" s="8" t="s">
         <v>406</v>
       </c>
-      <c r="D40" s="9"/>
+      <c r="D40" s="9">
+        <v>2019</v>
+      </c>
       <c r="E40" s="12" t="s">
         <v>587</v>
       </c>
       <c r="S40" s="6"/>
-      <c r="T40" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20" ht="16">
+      <c r="T40" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" ht="15.6">
       <c r="A41" s="7" t="s">
         <v>124</v>
       </c>
       <c r="C41" s="8" t="s">
         <v>407</v>
       </c>
-      <c r="D41" s="9"/>
+      <c r="D41" s="9">
+        <v>2019</v>
+      </c>
       <c r="E41" s="12" t="s">
         <v>586</v>
       </c>
       <c r="S41" s="6"/>
-      <c r="T41" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20" ht="16">
+      <c r="T41" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" ht="15.6">
       <c r="A42" s="7" t="s">
         <v>125</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>408</v>
       </c>
-      <c r="D42" s="9"/>
+      <c r="D42" s="9">
+        <v>2019</v>
+      </c>
       <c r="E42" s="12" t="s">
         <v>584</v>
       </c>
       <c r="S42" s="6"/>
-      <c r="T42" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20" ht="16">
+      <c r="T42" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" ht="15.6">
       <c r="A43" s="7" t="s">
         <v>126</v>
       </c>
       <c r="C43" s="8" t="s">
         <v>409</v>
       </c>
-      <c r="D43" s="9"/>
+      <c r="D43" s="9">
+        <v>2019</v>
+      </c>
       <c r="E43" s="12" t="s">
         <v>584</v>
       </c>
       <c r="S43" s="6"/>
-      <c r="T43" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20" ht="16">
+      <c r="T43" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" ht="15.6">
       <c r="A44" s="7" t="s">
         <v>127</v>
       </c>
       <c r="C44" s="8" t="s">
         <v>410</v>
       </c>
-      <c r="D44" s="9"/>
+      <c r="D44" s="9">
+        <v>2019</v>
+      </c>
       <c r="E44" s="12" t="s">
         <v>584</v>
       </c>
       <c r="S44" s="6"/>
-      <c r="T44" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20" ht="16">
+      <c r="T44" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" ht="15.6">
       <c r="A45" s="7" t="s">
         <v>128</v>
       </c>
       <c r="C45" s="8" t="s">
         <v>411</v>
       </c>
-      <c r="D45" s="9"/>
+      <c r="D45" s="9">
+        <v>2019</v>
+      </c>
       <c r="E45" s="12" t="s">
         <v>586</v>
       </c>
       <c r="S45" s="6"/>
-      <c r="T45" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20" ht="16">
+      <c r="T45" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" ht="15.6">
       <c r="A46" s="7" t="s">
         <v>129</v>
       </c>
       <c r="C46" s="8" t="s">
         <v>412</v>
       </c>
-      <c r="D46" s="9"/>
+      <c r="D46" s="9">
+        <v>2019</v>
+      </c>
       <c r="E46" s="12" t="s">
         <v>586</v>
       </c>
       <c r="S46" s="6"/>
-      <c r="T46" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20" ht="16">
+      <c r="T46" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" ht="15.6">
       <c r="A47" s="7" t="s">
         <v>130</v>
       </c>
       <c r="C47" s="8" t="s">
         <v>413</v>
       </c>
-      <c r="D47" s="9"/>
+      <c r="D47" s="9">
+        <v>2019</v>
+      </c>
       <c r="E47" s="12" t="s">
         <v>584</v>
       </c>
       <c r="S47" s="6"/>
-      <c r="T47" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="48" spans="1:20" ht="16">
+      <c r="T47" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" ht="15.6">
       <c r="A48" s="7" t="s">
         <v>131</v>
       </c>
       <c r="C48" s="8" t="s">
         <v>414</v>
       </c>
-      <c r="D48" s="9"/>
+      <c r="D48" s="9">
+        <v>2019</v>
+      </c>
       <c r="E48" s="12" t="s">
         <v>585</v>
       </c>
       <c r="S48" s="6"/>
-      <c r="T48" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="49" spans="1:20" ht="16">
+      <c r="T48" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" ht="15.6">
       <c r="A49" s="7" t="s">
         <v>132</v>
       </c>
       <c r="C49" s="8" t="s">
         <v>415</v>
       </c>
-      <c r="D49" s="9"/>
+      <c r="D49" s="9">
+        <v>2019</v>
+      </c>
       <c r="E49" s="12" t="s">
         <v>564</v>
       </c>
       <c r="S49" s="6"/>
-      <c r="T49" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="50" spans="1:20" ht="16">
+      <c r="T49" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" ht="15.6">
       <c r="A50" s="7" t="s">
         <v>133</v>
       </c>
       <c r="C50" s="8" t="s">
         <v>416</v>
       </c>
-      <c r="D50" s="9"/>
+      <c r="D50" s="9">
+        <v>2019</v>
+      </c>
       <c r="E50" s="12" t="s">
         <v>564</v>
       </c>
       <c r="S50" s="6"/>
-      <c r="T50" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="51" spans="1:20" ht="16">
+      <c r="T50" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" ht="15.6">
       <c r="A51" s="7" t="s">
         <v>134</v>
       </c>
       <c r="C51" s="8" t="s">
         <v>417</v>
       </c>
-      <c r="D51" s="9"/>
+      <c r="D51" s="9">
+        <v>2019</v>
+      </c>
       <c r="E51" s="12" t="s">
         <v>583</v>
       </c>
       <c r="S51" s="6"/>
-      <c r="T51" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="52" spans="1:20" ht="16">
+      <c r="T51" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" ht="15.6">
       <c r="A52" s="7" t="s">
         <v>135</v>
       </c>
       <c r="C52" s="8" t="s">
         <v>418</v>
       </c>
-      <c r="D52" s="9"/>
+      <c r="D52" s="9">
+        <v>2019</v>
+      </c>
       <c r="E52" s="12" t="s">
         <v>582</v>
       </c>
       <c r="S52" s="6"/>
-      <c r="T52" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="53" spans="1:20" ht="16">
+      <c r="T52" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" ht="15.6">
       <c r="A53" s="7" t="s">
         <v>136</v>
       </c>
       <c r="C53" s="8" t="s">
         <v>419</v>
       </c>
-      <c r="D53" s="9"/>
+      <c r="D53" s="9">
+        <v>2019</v>
+      </c>
       <c r="E53" s="12" t="s">
         <v>582</v>
       </c>
       <c r="S53" s="6"/>
-      <c r="T53" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="54" spans="1:20" ht="16">
+      <c r="T53" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" ht="15.6">
       <c r="A54" s="7" t="s">
         <v>137</v>
       </c>
       <c r="C54" s="8" t="s">
         <v>420</v>
       </c>
-      <c r="D54" s="9"/>
+      <c r="D54" s="9">
+        <v>2019</v>
+      </c>
       <c r="E54" s="12" t="s">
         <v>583</v>
       </c>
       <c r="S54" s="6"/>
-      <c r="T54" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="55" spans="1:20" ht="16">
+      <c r="T54" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" ht="15.6">
       <c r="A55" s="7" t="s">
         <v>138</v>
       </c>
       <c r="C55" s="8" t="s">
         <v>421</v>
       </c>
-      <c r="D55" s="9"/>
+      <c r="D55" s="9">
+        <v>2019</v>
+      </c>
       <c r="E55" s="12" t="s">
         <v>587</v>
       </c>
       <c r="S55" s="6"/>
-      <c r="T55" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="56" spans="1:20" ht="16">
+      <c r="T55" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" ht="15.6">
       <c r="A56" s="7" t="s">
         <v>139</v>
       </c>
       <c r="C56" s="8" t="s">
         <v>422</v>
       </c>
-      <c r="D56" s="9"/>
+      <c r="D56" s="9">
+        <v>2019</v>
+      </c>
       <c r="E56" s="12" t="s">
         <v>587</v>
       </c>
       <c r="S56" s="6"/>
-      <c r="T56" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="57" spans="1:20" ht="16">
+      <c r="T56" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" ht="15.6">
       <c r="A57" s="7" t="s">
         <v>140</v>
       </c>
       <c r="C57" s="8" t="s">
         <v>423</v>
       </c>
-      <c r="D57" s="9"/>
+      <c r="D57" s="9">
+        <v>2019</v>
+      </c>
       <c r="E57" s="12" t="s">
         <v>586</v>
       </c>
       <c r="S57" s="6"/>
-      <c r="T57" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="58" spans="1:20" ht="16">
+      <c r="T57" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" ht="15.6">
       <c r="A58" s="7" t="s">
         <v>141</v>
       </c>
       <c r="C58" s="8" t="s">
         <v>424</v>
       </c>
-      <c r="D58" s="9"/>
+      <c r="D58" s="9">
+        <v>2019</v>
+      </c>
       <c r="E58" s="12" t="s">
         <v>587</v>
       </c>
       <c r="S58" s="6"/>
-      <c r="T58" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="59" spans="1:20" ht="16">
+      <c r="T58" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" ht="15.6">
       <c r="A59" s="7" t="s">
         <v>142</v>
       </c>
       <c r="C59" s="8" t="s">
         <v>425</v>
       </c>
-      <c r="D59" s="9"/>
+      <c r="D59" s="9">
+        <v>2019</v>
+      </c>
       <c r="E59" s="12" t="s">
         <v>584</v>
       </c>
       <c r="S59" s="6"/>
-      <c r="T59" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="60" spans="1:20" ht="16">
+      <c r="T59" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" ht="15.6">
       <c r="A60" s="7" t="s">
         <v>143</v>
       </c>
       <c r="C60" s="8" t="s">
         <v>426</v>
       </c>
-      <c r="D60" s="9"/>
+      <c r="D60" s="9">
+        <v>2019</v>
+      </c>
       <c r="E60" s="12" t="s">
         <v>564</v>
       </c>
       <c r="S60" s="6"/>
-      <c r="T60" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="61" spans="1:20" ht="16">
+      <c r="T60" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" ht="15.6">
       <c r="A61" s="7" t="s">
         <v>144</v>
       </c>
       <c r="C61" s="8" t="s">
         <v>427</v>
       </c>
-      <c r="D61" s="9"/>
+      <c r="D61" s="9">
+        <v>2019</v>
+      </c>
       <c r="E61" s="12" t="s">
         <v>586</v>
       </c>
       <c r="S61" s="6"/>
-      <c r="T61" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="62" spans="1:20" ht="16">
+      <c r="T61" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" ht="15.6">
       <c r="A62" s="7" t="s">
         <v>145</v>
       </c>
       <c r="C62" s="8" t="s">
         <v>428</v>
       </c>
-      <c r="D62" s="9"/>
+      <c r="D62" s="9">
+        <v>2019</v>
+      </c>
       <c r="E62" s="12" t="s">
         <v>582</v>
       </c>
       <c r="S62" s="6"/>
-      <c r="T62" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="63" spans="1:20" ht="16">
+      <c r="T62" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" ht="15.6">
       <c r="A63" s="7" t="s">
         <v>146</v>
       </c>
       <c r="C63" s="8" t="s">
         <v>429</v>
       </c>
-      <c r="D63" s="9"/>
+      <c r="D63" s="9">
+        <v>2019</v>
+      </c>
       <c r="E63" s="12" t="s">
         <v>586</v>
       </c>
       <c r="S63" s="6"/>
-      <c r="T63" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="64" spans="1:20" ht="16">
+      <c r="T63" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" ht="15.6">
       <c r="A64" s="7" t="s">
         <v>147</v>
       </c>
       <c r="C64" s="8" t="s">
         <v>430</v>
       </c>
-      <c r="D64" s="9"/>
+      <c r="D64" s="9">
+        <v>2019</v>
+      </c>
       <c r="E64" s="12" t="s">
         <v>586</v>
       </c>
       <c r="S64" s="6"/>
-      <c r="T64" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="65" spans="1:20" ht="16">
+      <c r="T64" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" ht="15.6">
       <c r="A65" s="7" t="s">
         <v>148</v>
       </c>
       <c r="C65" s="8" t="s">
         <v>431</v>
       </c>
-      <c r="D65" s="9"/>
+      <c r="D65" s="9">
+        <v>2019</v>
+      </c>
       <c r="E65" s="12" t="s">
         <v>585</v>
       </c>
       <c r="S65" s="6"/>
-      <c r="T65" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="66" spans="1:20" ht="16">
+      <c r="T65" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" ht="15.6">
       <c r="A66" s="7" t="s">
         <v>149</v>
       </c>
       <c r="C66" s="8" t="s">
         <v>432</v>
       </c>
-      <c r="D66" s="9"/>
+      <c r="D66" s="9">
+        <v>2019</v>
+      </c>
       <c r="E66" s="12" t="s">
         <v>583</v>
       </c>
       <c r="S66" s="6"/>
-      <c r="T66" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="67" spans="1:20" ht="16">
+      <c r="T66" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" ht="15.6">
       <c r="A67" s="7" t="s">
         <v>150</v>
       </c>
       <c r="C67" s="8" t="s">
         <v>433</v>
       </c>
-      <c r="D67" s="9"/>
+      <c r="D67" s="9">
+        <v>2019</v>
+      </c>
       <c r="E67" s="12" t="s">
         <v>584</v>
       </c>
       <c r="S67" s="6"/>
-      <c r="T67" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="68" spans="1:20" ht="16">
+      <c r="T67" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" ht="15.6">
       <c r="A68" s="7" t="s">
         <v>151</v>
       </c>
       <c r="C68" s="8" t="s">
         <v>434</v>
       </c>
-      <c r="D68" s="9"/>
+      <c r="D68" s="9">
+        <v>2019</v>
+      </c>
       <c r="E68" s="12" t="s">
         <v>583</v>
       </c>
       <c r="S68" s="6"/>
-      <c r="T68" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="69" spans="1:20" ht="16">
+      <c r="T68" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" ht="15.6">
       <c r="A69" s="7" t="s">
         <v>152</v>
       </c>
       <c r="C69" s="8" t="s">
         <v>435</v>
       </c>
-      <c r="D69" s="9"/>
+      <c r="D69" s="9">
+        <v>2019</v>
+      </c>
       <c r="E69" s="12" t="s">
         <v>564</v>
       </c>
       <c r="S69" s="6"/>
-      <c r="T69" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="70" spans="1:20" ht="16">
+      <c r="T69" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" ht="15.6">
       <c r="A70" s="7" t="s">
         <v>153</v>
       </c>
       <c r="C70" s="8" t="s">
         <v>436</v>
       </c>
-      <c r="D70" s="9"/>
+      <c r="D70" s="9">
+        <v>2019</v>
+      </c>
       <c r="E70" s="12" t="s">
         <v>582</v>
       </c>
       <c r="S70" s="6"/>
-      <c r="T70" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="71" spans="1:20" ht="16">
+      <c r="T70" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" ht="15.6">
       <c r="A71" s="7" t="s">
         <v>154</v>
       </c>
       <c r="C71" s="8" t="s">
         <v>437</v>
       </c>
-      <c r="D71" s="9"/>
+      <c r="D71" s="9">
+        <v>2019</v>
+      </c>
       <c r="E71" s="12" t="s">
         <v>586</v>
       </c>
       <c r="S71" s="6"/>
-      <c r="T71" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="72" spans="1:20" ht="16">
+      <c r="T71" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" ht="15.6">
       <c r="A72" s="7" t="s">
         <v>155</v>
       </c>
       <c r="C72" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="D72" s="9"/>
+      <c r="D72" s="9">
+        <v>2019</v>
+      </c>
       <c r="E72" s="12" t="s">
         <v>587</v>
       </c>
       <c r="S72" s="6"/>
-      <c r="T72" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="73" spans="1:20" ht="16">
+      <c r="T72" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" ht="15.6">
       <c r="A73" s="7" t="s">
         <v>156</v>
       </c>
       <c r="C73" s="8" t="s">
         <v>439</v>
       </c>
-      <c r="D73" s="9"/>
+      <c r="D73" s="9">
+        <v>2019</v>
+      </c>
       <c r="E73" s="12" t="s">
         <v>586</v>
       </c>
       <c r="S73" s="6"/>
-      <c r="T73" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="74" spans="1:20" ht="16">
+      <c r="T73" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" ht="15.6">
       <c r="A74" s="7" t="s">
         <v>157</v>
       </c>
       <c r="C74" s="8" t="s">
         <v>440</v>
       </c>
-      <c r="D74" s="9"/>
+      <c r="D74" s="9">
+        <v>2019</v>
+      </c>
       <c r="E74" s="12" t="s">
         <v>586</v>
       </c>
       <c r="S74" s="6"/>
-      <c r="T74" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="75" spans="1:20" ht="16">
+      <c r="T74" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" ht="15.6">
       <c r="A75" s="7" t="s">
         <v>158</v>
       </c>
       <c r="C75" s="8" t="s">
         <v>441</v>
       </c>
-      <c r="D75" s="9"/>
+      <c r="D75" s="9">
+        <v>2019</v>
+      </c>
       <c r="E75" s="12" t="s">
         <v>583</v>
       </c>
       <c r="S75" s="6"/>
-      <c r="T75" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="76" spans="1:20" ht="16">
+      <c r="T75" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" ht="15.6">
       <c r="A76" s="7" t="s">
         <v>159</v>
       </c>
       <c r="C76" s="8" t="s">
         <v>442</v>
       </c>
-      <c r="D76" s="9"/>
+      <c r="D76" s="9">
+        <v>2019</v>
+      </c>
       <c r="E76" s="12" t="s">
         <v>582</v>
       </c>
       <c r="S76" s="6"/>
-      <c r="T76" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="77" spans="1:20" ht="16">
+      <c r="T76" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" ht="15.6">
       <c r="A77" s="7" t="s">
         <v>160</v>
       </c>
       <c r="C77" s="8" t="s">
         <v>443</v>
       </c>
-      <c r="D77" s="9"/>
+      <c r="D77" s="9">
+        <v>2019</v>
+      </c>
       <c r="E77" s="12" t="s">
         <v>587</v>
       </c>
       <c r="S77" s="6"/>
-      <c r="T77" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="78" spans="1:20" ht="16">
+      <c r="T77" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" ht="15.6">
       <c r="A78" s="7" t="s">
         <v>161</v>
       </c>
       <c r="C78" s="8" t="s">
         <v>444</v>
       </c>
-      <c r="D78" s="9"/>
+      <c r="D78" s="9">
+        <v>2019</v>
+      </c>
       <c r="E78" s="12" t="s">
         <v>582</v>
       </c>
       <c r="S78" s="6"/>
-      <c r="T78" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="79" spans="1:20" ht="16">
+      <c r="T78" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" ht="15.6">
       <c r="A79" s="7" t="s">
         <v>162</v>
       </c>
       <c r="C79" s="8" t="s">
         <v>445</v>
       </c>
-      <c r="D79" s="9"/>
+      <c r="D79" s="9">
+        <v>2019</v>
+      </c>
       <c r="E79" s="12" t="s">
         <v>582</v>
       </c>
       <c r="S79" s="6"/>
-      <c r="T79" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="80" spans="1:20" ht="16">
+      <c r="T79" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" ht="15.6">
       <c r="A80" s="7" t="s">
         <v>163</v>
       </c>
       <c r="C80" s="8" t="s">
         <v>446</v>
       </c>
-      <c r="D80" s="9"/>
+      <c r="D80" s="9">
+        <v>2019</v>
+      </c>
       <c r="E80" s="12" t="s">
         <v>582</v>
       </c>
       <c r="S80" s="6"/>
-      <c r="T80" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="81" spans="1:20" ht="16">
+      <c r="T80" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20" ht="15.6">
       <c r="A81" s="7" t="s">
         <v>164</v>
       </c>
       <c r="C81" s="8" t="s">
         <v>447</v>
       </c>
-      <c r="D81" s="9"/>
+      <c r="D81" s="9">
+        <v>2019</v>
+      </c>
       <c r="E81" s="12" t="s">
         <v>582</v>
       </c>
       <c r="S81" s="6"/>
-      <c r="T81" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="82" spans="1:20" ht="16">
+      <c r="T81" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" ht="15.6">
       <c r="A82" s="7" t="s">
         <v>165</v>
       </c>
       <c r="C82" s="8" t="s">
         <v>448</v>
       </c>
-      <c r="D82" s="9"/>
+      <c r="D82" s="9">
+        <v>2019</v>
+      </c>
       <c r="E82" s="12" t="s">
         <v>585</v>
       </c>
       <c r="S82" s="6"/>
-      <c r="T82" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="83" spans="1:20" ht="16">
+      <c r="T82" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" ht="15.6">
       <c r="A83" s="7" t="s">
         <v>166</v>
       </c>
       <c r="C83" s="8" t="s">
         <v>449</v>
       </c>
-      <c r="D83" s="9"/>
+      <c r="D83" s="9">
+        <v>2019</v>
+      </c>
       <c r="E83" s="12" t="s">
         <v>583</v>
       </c>
       <c r="S83" s="6"/>
-      <c r="T83" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="84" spans="1:20" ht="16">
+      <c r="T83" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20" ht="15.6">
       <c r="A84" s="7" t="s">
         <v>167</v>
       </c>
       <c r="C84" s="8" t="s">
         <v>450</v>
       </c>
-      <c r="D84" s="9"/>
+      <c r="D84" s="9">
+        <v>2019</v>
+      </c>
       <c r="E84" s="12" t="s">
         <v>583</v>
       </c>
       <c r="S84" s="6"/>
-      <c r="T84" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="85" spans="1:20" ht="16">
+      <c r="T84" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20" ht="15.6">
       <c r="A85" s="7" t="s">
         <v>168</v>
       </c>
       <c r="C85" s="8" t="s">
         <v>451</v>
       </c>
-      <c r="D85" s="9"/>
+      <c r="D85" s="9">
+        <v>2019</v>
+      </c>
       <c r="E85" s="12" t="s">
         <v>586</v>
       </c>
       <c r="S85" s="6"/>
-      <c r="T85" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="86" spans="1:20" ht="16">
+      <c r="T85" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" ht="15.6">
       <c r="A86" s="7" t="s">
         <v>169</v>
       </c>
       <c r="C86" s="8" t="s">
         <v>452</v>
       </c>
-      <c r="D86" s="9"/>
+      <c r="D86" s="9">
+        <v>2019</v>
+      </c>
       <c r="E86" s="12" t="s">
         <v>583</v>
       </c>
       <c r="S86" s="6"/>
-      <c r="T86" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="87" spans="1:20" ht="16">
+      <c r="T86" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" ht="15.6">
       <c r="A87" s="7" t="s">
         <v>170</v>
       </c>
       <c r="C87" s="8" t="s">
         <v>453</v>
       </c>
-      <c r="D87" s="9"/>
+      <c r="D87" s="9">
+        <v>2019</v>
+      </c>
       <c r="E87" s="12" t="s">
         <v>582</v>
       </c>
       <c r="S87" s="6"/>
-      <c r="T87" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="88" spans="1:20" ht="16">
+      <c r="T87" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" ht="15.6">
       <c r="A88" s="7" t="s">
         <v>171</v>
       </c>
       <c r="C88" s="8" t="s">
         <v>454</v>
       </c>
-      <c r="D88" s="9"/>
+      <c r="D88" s="9">
+        <v>2019</v>
+      </c>
       <c r="E88" s="12" t="s">
         <v>585</v>
       </c>
       <c r="S88" s="6"/>
-      <c r="T88" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="89" spans="1:20" ht="16">
+      <c r="T88" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20" ht="15.6">
       <c r="A89" s="7" t="s">
         <v>172</v>
       </c>
       <c r="C89" s="8" t="s">
         <v>455</v>
       </c>
-      <c r="D89" s="9"/>
+      <c r="D89" s="9">
+        <v>2019</v>
+      </c>
       <c r="E89" s="12" t="s">
         <v>584</v>
       </c>
       <c r="S89" s="6"/>
-      <c r="T89" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="90" spans="1:20" ht="16">
+      <c r="T89" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" ht="15.6">
       <c r="A90" s="7" t="s">
         <v>173</v>
       </c>
       <c r="C90" s="8" t="s">
         <v>456</v>
       </c>
-      <c r="D90" s="9"/>
+      <c r="D90" s="9">
+        <v>2019</v>
+      </c>
       <c r="E90" s="12" t="s">
         <v>564</v>
       </c>
       <c r="S90" s="6"/>
-      <c r="T90" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="91" spans="1:20" ht="16">
+      <c r="T90" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20" ht="15.6">
       <c r="A91" s="7" t="s">
         <v>174</v>
       </c>
       <c r="C91" s="8" t="s">
         <v>457</v>
       </c>
-      <c r="D91" s="9"/>
+      <c r="D91" s="9">
+        <v>2019</v>
+      </c>
       <c r="E91" s="12" t="s">
         <v>587</v>
       </c>
       <c r="S91" s="6"/>
-      <c r="T91" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="92" spans="1:20" ht="16">
+      <c r="T91" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20" ht="15.6">
       <c r="A92" s="7" t="s">
         <v>175</v>
       </c>
       <c r="C92" s="8" t="s">
         <v>458</v>
       </c>
-      <c r="D92" s="9"/>
+      <c r="D92" s="9">
+        <v>2019</v>
+      </c>
       <c r="E92" s="12" t="s">
         <v>582</v>
       </c>
       <c r="S92" s="6"/>
-      <c r="T92" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="93" spans="1:20" ht="16">
+      <c r="T92" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20" ht="15.6">
       <c r="A93" s="7" t="s">
         <v>459</v>
       </c>
       <c r="C93" s="8" t="s">
         <v>460</v>
       </c>
-      <c r="D93" s="9"/>
+      <c r="D93" s="9">
+        <v>2019</v>
+      </c>
       <c r="E93" s="12" t="s">
         <v>583</v>
       </c>
       <c r="S93" s="6"/>
-      <c r="T93" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="94" spans="1:20" ht="16">
+      <c r="T93" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20" ht="15.6">
       <c r="A94" s="7" t="s">
         <v>177</v>
       </c>
       <c r="C94" s="8" t="s">
         <v>461</v>
       </c>
-      <c r="D94" s="9"/>
+      <c r="D94" s="9">
+        <v>2019</v>
+      </c>
       <c r="E94" s="12" t="s">
         <v>582</v>
       </c>
       <c r="S94" s="6"/>
-      <c r="T94" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="95" spans="1:20" ht="16">
+      <c r="T94" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20" ht="15.6">
       <c r="A95" s="7" t="s">
         <v>178</v>
       </c>
       <c r="C95" s="8" t="s">
         <v>462</v>
       </c>
-      <c r="D95" s="9"/>
+      <c r="D95" s="9">
+        <v>2019</v>
+      </c>
       <c r="E95" s="12" t="s">
         <v>585</v>
       </c>
       <c r="S95" s="6"/>
-      <c r="T95" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="96" spans="1:20" ht="16">
+      <c r="T95" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20" ht="15.6">
       <c r="A96" s="7" t="s">
         <v>179</v>
       </c>
       <c r="C96" s="8" t="s">
         <v>463</v>
       </c>
-      <c r="D96" s="9"/>
+      <c r="D96" s="9">
+        <v>2019</v>
+      </c>
       <c r="E96" s="12" t="s">
         <v>583</v>
       </c>
       <c r="S96" s="6"/>
-      <c r="T96" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="97" spans="1:20" ht="16">
+      <c r="T96" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20" ht="15.6">
       <c r="A97" s="7" t="s">
         <v>180</v>
       </c>
       <c r="C97" s="8" t="s">
         <v>464</v>
       </c>
-      <c r="D97" s="9"/>
+      <c r="D97" s="9">
+        <v>2019</v>
+      </c>
       <c r="E97" s="12" t="s">
         <v>586</v>
       </c>
       <c r="S97" s="6"/>
-      <c r="T97" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="98" spans="1:20" ht="16">
+      <c r="T97" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20" ht="15.6">
       <c r="A98" s="7" t="s">
         <v>181</v>
       </c>
       <c r="C98" s="8" t="s">
         <v>465</v>
       </c>
-      <c r="D98" s="9"/>
+      <c r="D98" s="9">
+        <v>2019</v>
+      </c>
       <c r="E98" s="12" t="s">
         <v>583</v>
       </c>
       <c r="S98" s="6"/>
-      <c r="T98" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="99" spans="1:20" ht="16">
+      <c r="T98" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="99" spans="1:20" ht="15.6">
       <c r="A99" s="7" t="s">
         <v>182</v>
       </c>
       <c r="C99" s="8" t="s">
         <v>466</v>
       </c>
-      <c r="D99" s="9"/>
+      <c r="D99" s="9">
+        <v>2019</v>
+      </c>
       <c r="E99" s="12" t="s">
         <v>587</v>
       </c>
       <c r="S99" s="6"/>
-      <c r="T99" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="100" spans="1:20" ht="16">
+      <c r="T99" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="100" spans="1:20" ht="15.6">
       <c r="A100" s="7" t="s">
         <v>183</v>
       </c>
       <c r="C100" s="8" t="s">
         <v>467</v>
       </c>
-      <c r="D100" s="9"/>
+      <c r="D100" s="9">
+        <v>2019</v>
+      </c>
       <c r="E100" s="12" t="s">
         <v>587</v>
       </c>
       <c r="S100" s="6"/>
-      <c r="T100" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="101" spans="1:20" ht="16">
+      <c r="T100" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="101" spans="1:20" ht="15.6">
       <c r="A101" s="7" t="s">
         <v>184</v>
       </c>
       <c r="C101" s="8" t="s">
         <v>468</v>
       </c>
-      <c r="D101" s="9"/>
+      <c r="D101" s="9">
+        <v>2019</v>
+      </c>
       <c r="E101" s="12" t="s">
         <v>582</v>
       </c>
       <c r="S101" s="6"/>
-      <c r="T101" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="102" spans="1:20" ht="16">
+      <c r="T101" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="102" spans="1:20" ht="15.6">
       <c r="A102" s="7" t="s">
         <v>185</v>
       </c>
       <c r="C102" s="8" t="s">
         <v>469</v>
       </c>
-      <c r="D102" s="9"/>
+      <c r="D102" s="9">
+        <v>2019</v>
+      </c>
       <c r="E102" s="12" t="s">
         <v>564</v>
       </c>
       <c r="S102" s="6"/>
-      <c r="T102" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="103" spans="1:20" ht="16">
+      <c r="T102" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="103" spans="1:20" ht="15.6">
       <c r="A103" s="7" t="s">
         <v>186</v>
       </c>
       <c r="C103" s="8" t="s">
         <v>470</v>
       </c>
-      <c r="D103" s="9"/>
+      <c r="D103" s="9">
+        <v>2019</v>
+      </c>
       <c r="E103" s="12" t="s">
         <v>584</v>
       </c>
       <c r="S103" s="6"/>
-      <c r="T103" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="104" spans="1:20" ht="16">
+      <c r="T103" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="104" spans="1:20" ht="15.6">
       <c r="A104" s="7" t="s">
         <v>187</v>
       </c>
       <c r="C104" s="8" t="s">
         <v>471</v>
       </c>
-      <c r="D104" s="9"/>
+      <c r="D104" s="9">
+        <v>2019</v>
+      </c>
       <c r="E104" s="12" t="s">
         <v>564</v>
       </c>
       <c r="S104" s="6"/>
-      <c r="T104" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="105" spans="1:20" ht="16">
+      <c r="T104" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="105" spans="1:20" ht="15.6">
       <c r="A105" s="7" t="s">
         <v>188</v>
       </c>
       <c r="C105" s="8" t="s">
         <v>472</v>
       </c>
-      <c r="D105" s="9"/>
+      <c r="D105" s="9">
+        <v>2019</v>
+      </c>
       <c r="E105" s="12" t="s">
         <v>585</v>
       </c>
       <c r="S105" s="6"/>
-      <c r="T105" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="106" spans="1:20" ht="16">
+      <c r="T105" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="106" spans="1:20" ht="15.6">
       <c r="A106" s="7" t="s">
         <v>189</v>
       </c>
       <c r="C106" s="8" t="s">
         <v>473</v>
       </c>
-      <c r="D106" s="9"/>
+      <c r="D106" s="9">
+        <v>2019</v>
+      </c>
       <c r="E106" s="12" t="s">
         <v>585</v>
       </c>
       <c r="S106" s="6"/>
-      <c r="T106" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="107" spans="1:20" ht="16">
+      <c r="T106" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="107" spans="1:20" ht="15.6">
       <c r="A107" s="7" t="s">
         <v>190</v>
       </c>
       <c r="C107" s="8" t="s">
         <v>474</v>
       </c>
-      <c r="D107" s="9"/>
+      <c r="D107" s="9">
+        <v>2019</v>
+      </c>
       <c r="E107" s="12" t="s">
         <v>587</v>
       </c>
       <c r="S107" s="6"/>
-      <c r="T107" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="108" spans="1:20" ht="16">
+      <c r="T107" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="108" spans="1:20" ht="15.6">
       <c r="A108" s="7" t="s">
         <v>191</v>
       </c>
       <c r="C108" s="8" t="s">
         <v>475</v>
       </c>
-      <c r="D108" s="9"/>
+      <c r="D108" s="9">
+        <v>2019</v>
+      </c>
       <c r="E108" s="12" t="s">
         <v>582</v>
       </c>
       <c r="S108" s="6"/>
-      <c r="T108" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="109" spans="1:20" ht="16">
+      <c r="T108" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="109" spans="1:20" ht="15.6">
       <c r="A109" s="7" t="s">
         <v>192</v>
       </c>
       <c r="C109" s="8" t="s">
         <v>476</v>
       </c>
-      <c r="D109" s="9"/>
+      <c r="D109" s="9">
+        <v>2019</v>
+      </c>
       <c r="E109" s="12" t="s">
         <v>584</v>
       </c>
       <c r="S109" s="6"/>
-      <c r="T109" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="110" spans="1:20" ht="16">
+      <c r="T109" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="110" spans="1:20" ht="15.6">
       <c r="A110" s="7" t="s">
         <v>193</v>
       </c>
       <c r="C110" s="8" t="s">
         <v>477</v>
       </c>
-      <c r="D110" s="9"/>
+      <c r="D110" s="9">
+        <v>2019</v>
+      </c>
       <c r="E110" s="12" t="s">
         <v>586</v>
       </c>
       <c r="S110" s="6"/>
-      <c r="T110" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="111" spans="1:20" ht="16">
+      <c r="T110" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="111" spans="1:20" ht="15.6">
       <c r="A111" s="7" t="s">
         <v>194</v>
       </c>
       <c r="C111" s="8" t="s">
         <v>478</v>
       </c>
-      <c r="D111" s="9"/>
+      <c r="D111" s="9">
+        <v>2019</v>
+      </c>
       <c r="E111" s="12" t="s">
         <v>564</v>
       </c>
       <c r="S111" s="6"/>
-      <c r="T111" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="112" spans="1:20" ht="16">
+      <c r="T111" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="112" spans="1:20" ht="15.6">
       <c r="A112" s="7" t="s">
         <v>195</v>
       </c>
       <c r="C112" s="8" t="s">
         <v>479</v>
       </c>
-      <c r="D112" s="9"/>
+      <c r="D112" s="9">
+        <v>2019</v>
+      </c>
       <c r="E112" s="12" t="s">
         <v>564</v>
       </c>
       <c r="S112" s="6"/>
-      <c r="T112" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="113" spans="1:20" ht="16">
+      <c r="T112" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="113" spans="1:20" ht="15.6">
       <c r="A113" s="7" t="s">
         <v>196</v>
       </c>
       <c r="C113" s="8" t="s">
         <v>480</v>
       </c>
-      <c r="D113" s="9"/>
+      <c r="D113" s="9">
+        <v>2019</v>
+      </c>
       <c r="E113" s="12" t="s">
         <v>585</v>
       </c>
       <c r="S113" s="6"/>
-      <c r="T113" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="114" spans="1:20" ht="16">
+      <c r="T113" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="114" spans="1:20" ht="15.6">
       <c r="A114" s="7" t="s">
         <v>197</v>
       </c>
       <c r="C114" s="8" t="s">
         <v>481</v>
       </c>
-      <c r="D114" s="9"/>
+      <c r="D114" s="9">
+        <v>2019</v>
+      </c>
       <c r="E114" s="12" t="s">
         <v>564</v>
       </c>
       <c r="S114" s="6"/>
-      <c r="T114" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="115" spans="1:20" ht="16">
+      <c r="T114" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="115" spans="1:20" ht="15.6">
       <c r="A115" s="7" t="s">
         <v>198</v>
       </c>
       <c r="C115" s="8" t="s">
         <v>482</v>
       </c>
-      <c r="D115" s="9"/>
+      <c r="D115" s="9">
+        <v>2019</v>
+      </c>
       <c r="E115" s="12" t="s">
         <v>582</v>
       </c>
       <c r="S115" s="6"/>
-      <c r="T115" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="116" spans="1:20" ht="16">
+      <c r="T115" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="116" spans="1:20" ht="15.6">
       <c r="A116" s="7" t="s">
         <v>199</v>
       </c>
       <c r="C116" s="8" t="s">
         <v>483</v>
       </c>
-      <c r="D116" s="9"/>
+      <c r="D116" s="9">
+        <v>2019</v>
+      </c>
       <c r="E116" s="12" t="s">
         <v>564</v>
       </c>
       <c r="S116" s="6"/>
-      <c r="T116" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="117" spans="1:20" ht="16">
+      <c r="T116" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="117" spans="1:20" ht="15.6">
       <c r="A117" s="7" t="s">
         <v>200</v>
       </c>
       <c r="C117" s="8" t="s">
         <v>484</v>
       </c>
-      <c r="D117" s="9"/>
+      <c r="D117" s="9">
+        <v>2019</v>
+      </c>
       <c r="E117" s="12" t="s">
         <v>584</v>
       </c>
       <c r="S117" s="6"/>
-      <c r="T117" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="118" spans="1:20" ht="16">
+      <c r="T117" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="118" spans="1:20" ht="15.6">
       <c r="A118" s="7" t="s">
         <v>201</v>
       </c>
       <c r="C118" s="8" t="s">
         <v>485</v>
       </c>
-      <c r="D118" s="9"/>
+      <c r="D118" s="9">
+        <v>2019</v>
+      </c>
       <c r="E118" s="12" t="s">
         <v>564</v>
       </c>
       <c r="S118" s="6"/>
-      <c r="T118" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="119" spans="1:20" ht="16">
+      <c r="T118" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="119" spans="1:20" ht="15.6">
       <c r="A119" s="7" t="s">
         <v>202</v>
       </c>
       <c r="C119" s="8" t="s">
         <v>486</v>
       </c>
-      <c r="D119" s="9"/>
+      <c r="D119" s="9">
+        <v>2019</v>
+      </c>
       <c r="E119" s="12" t="s">
         <v>586</v>
       </c>
       <c r="S119" s="6"/>
-      <c r="T119" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="120" spans="1:20" ht="16">
+      <c r="T119" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="120" spans="1:20" ht="15.6">
       <c r="A120" s="7" t="s">
         <v>203</v>
       </c>
       <c r="C120" s="8" t="s">
         <v>487</v>
       </c>
-      <c r="D120" s="9"/>
+      <c r="D120" s="9">
+        <v>2019</v>
+      </c>
       <c r="E120" s="12" t="s">
         <v>586</v>
       </c>
       <c r="S120" s="6"/>
-      <c r="T120" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="121" spans="1:20" ht="16">
+      <c r="T120" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="121" spans="1:20" ht="15.6">
       <c r="A121" s="7" t="s">
         <v>204</v>
       </c>
       <c r="C121" s="8" t="s">
         <v>488</v>
       </c>
-      <c r="D121" s="9"/>
+      <c r="D121" s="9">
+        <v>2019</v>
+      </c>
       <c r="E121" s="12" t="s">
         <v>582</v>
       </c>
       <c r="S121" s="6"/>
-      <c r="T121" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="122" spans="1:20" ht="16">
+      <c r="T121" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="122" spans="1:20" ht="15.6">
       <c r="A122" s="7" t="s">
         <v>205</v>
       </c>
       <c r="C122" s="8" t="s">
         <v>489</v>
       </c>
-      <c r="D122" s="9"/>
+      <c r="D122" s="9">
+        <v>2019</v>
+      </c>
       <c r="E122" s="12" t="s">
         <v>586</v>
       </c>
       <c r="S122" s="6"/>
-      <c r="T122" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="123" spans="1:20" ht="16">
+      <c r="T122" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="123" spans="1:20" ht="15.6">
       <c r="A123" s="7" t="s">
         <v>206</v>
       </c>
       <c r="C123" s="8" t="s">
         <v>490</v>
       </c>
-      <c r="D123" s="9"/>
+      <c r="D123" s="9">
+        <v>2019</v>
+      </c>
       <c r="E123" s="12" t="s">
         <v>582</v>
       </c>
       <c r="S123" s="6"/>
-      <c r="T123" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="124" spans="1:20" ht="16">
+      <c r="T123" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="124" spans="1:20" ht="15.6">
       <c r="A124" s="7" t="s">
         <v>207</v>
       </c>
       <c r="C124" s="8" t="s">
         <v>491</v>
       </c>
-      <c r="D124" s="9"/>
+      <c r="D124" s="9">
+        <v>2019</v>
+      </c>
       <c r="E124" s="12" t="s">
         <v>587</v>
       </c>
       <c r="S124" s="6"/>
-      <c r="T124" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="125" spans="1:20" ht="16">
+      <c r="T124" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="125" spans="1:20" ht="15.6">
       <c r="A125" s="7" t="s">
         <v>208</v>
       </c>
       <c r="C125" s="8" t="s">
         <v>492</v>
       </c>
-      <c r="D125" s="9"/>
+      <c r="D125" s="9">
+        <v>2019</v>
+      </c>
       <c r="E125" s="12" t="s">
         <v>564</v>
       </c>
       <c r="S125" s="6"/>
-      <c r="T125" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="126" spans="1:20" ht="16">
+      <c r="T125" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="126" spans="1:20" ht="15.6">
       <c r="A126" s="7" t="s">
         <v>209</v>
       </c>
       <c r="C126" s="8" t="s">
         <v>493</v>
       </c>
-      <c r="D126" s="9"/>
+      <c r="D126" s="9">
+        <v>2019</v>
+      </c>
       <c r="E126" s="12" t="s">
         <v>582</v>
       </c>
       <c r="S126" s="6"/>
-      <c r="T126" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="127" spans="1:20" ht="16">
+      <c r="T126" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="127" spans="1:20" ht="15.6">
       <c r="A127" s="7" t="s">
         <v>210</v>
       </c>
       <c r="C127" s="8" t="s">
         <v>494</v>
       </c>
-      <c r="D127" s="9"/>
+      <c r="D127" s="9">
+        <v>2019</v>
+      </c>
       <c r="E127" s="12" t="s">
         <v>583</v>
       </c>
       <c r="S127" s="6"/>
-      <c r="T127" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="128" spans="1:20" ht="16">
+      <c r="T127" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="128" spans="1:20" ht="15.6">
       <c r="A128" s="7" t="s">
         <v>211</v>
       </c>
       <c r="C128" s="8" t="s">
         <v>495</v>
       </c>
-      <c r="D128" s="9"/>
+      <c r="D128" s="9">
+        <v>2019</v>
+      </c>
       <c r="E128" s="12" t="s">
         <v>585</v>
       </c>
       <c r="S128" s="6"/>
-      <c r="T128" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="129" spans="1:20" ht="16">
+      <c r="T128" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="129" spans="1:20" ht="15.6">
       <c r="A129" s="7" t="s">
         <v>212</v>
       </c>
       <c r="C129" s="8" t="s">
         <v>496</v>
       </c>
-      <c r="D129" s="9"/>
+      <c r="D129" s="9">
+        <v>2019</v>
+      </c>
       <c r="E129" s="12" t="s">
         <v>584</v>
       </c>
       <c r="S129" s="6"/>
-      <c r="T129" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="130" spans="1:20" ht="16">
+      <c r="T129" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="130" spans="1:20" ht="15.6">
       <c r="A130" s="7" t="s">
         <v>213</v>
       </c>
       <c r="C130" s="8" t="s">
         <v>497</v>
       </c>
-      <c r="D130" s="9"/>
+      <c r="D130" s="9">
+        <v>2019</v>
+      </c>
       <c r="E130" s="12" t="s">
         <v>587</v>
       </c>
       <c r="S130" s="6"/>
-      <c r="T130" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="131" spans="1:20" ht="16">
+      <c r="T130" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="131" spans="1:20" ht="15.6">
       <c r="A131" s="7" t="s">
         <v>214</v>
       </c>
       <c r="C131" s="8" t="s">
         <v>498</v>
       </c>
-      <c r="D131" s="9"/>
+      <c r="D131" s="9">
+        <v>2019</v>
+      </c>
       <c r="E131" s="12" t="s">
         <v>583</v>
       </c>
       <c r="S131" s="6"/>
-      <c r="T131" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="132" spans="1:20" ht="16">
+      <c r="T131" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="132" spans="1:20" ht="15.6">
       <c r="A132" s="7" t="s">
         <v>215</v>
       </c>
       <c r="C132" s="8" t="s">
         <v>499</v>
       </c>
-      <c r="D132" s="9"/>
+      <c r="D132" s="9">
+        <v>2019</v>
+      </c>
       <c r="E132" s="12" t="s">
         <v>585</v>
       </c>
       <c r="S132" s="6"/>
-      <c r="T132" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="133" spans="1:20" ht="16">
+      <c r="T132" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="133" spans="1:20" ht="15.6">
       <c r="A133" s="7" t="s">
         <v>216</v>
       </c>
       <c r="C133" s="8" t="s">
         <v>500</v>
       </c>
-      <c r="D133" s="9"/>
+      <c r="D133" s="9">
+        <v>2019</v>
+      </c>
       <c r="E133" s="12" t="s">
         <v>583</v>
       </c>
       <c r="S133" s="6"/>
-      <c r="T133" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="134" spans="1:20" ht="16">
+      <c r="T133" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="134" spans="1:20" ht="15.6">
       <c r="A134" s="7" t="s">
         <v>217</v>
       </c>
       <c r="C134" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="D134" s="9"/>
+      <c r="D134" s="9">
+        <v>2019</v>
+      </c>
       <c r="E134" s="12" t="s">
         <v>582</v>
       </c>
       <c r="S134" s="6"/>
-      <c r="T134" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="135" spans="1:20" ht="16">
+      <c r="T134" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="135" spans="1:20" ht="15.6">
       <c r="A135" s="7" t="s">
         <v>218</v>
       </c>
       <c r="C135" s="8" t="s">
         <v>502</v>
       </c>
-      <c r="D135" s="9"/>
+      <c r="D135" s="9">
+        <v>2019</v>
+      </c>
       <c r="E135" s="12" t="s">
         <v>564</v>
       </c>
       <c r="S135" s="6"/>
-      <c r="T135" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="136" spans="1:20" ht="16">
+      <c r="T135" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="136" spans="1:20" ht="15.6">
       <c r="A136" s="7" t="s">
         <v>219</v>
       </c>
       <c r="C136" s="8" t="s">
         <v>503</v>
       </c>
-      <c r="D136" s="9"/>
+      <c r="D136" s="9">
+        <v>2019</v>
+      </c>
       <c r="E136" s="12" t="s">
         <v>583</v>
       </c>
       <c r="S136" s="6"/>
-      <c r="T136" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="137" spans="1:20" ht="16">
+      <c r="T136" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="137" spans="1:20" ht="15.6">
       <c r="A137" s="7" t="s">
         <v>220</v>
       </c>
       <c r="C137" s="8" t="s">
         <v>504</v>
       </c>
-      <c r="D137" s="9"/>
+      <c r="D137" s="9">
+        <v>2019</v>
+      </c>
       <c r="E137" s="12" t="s">
         <v>584</v>
       </c>
       <c r="S137" s="6"/>
-      <c r="T137" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="138" spans="1:20" ht="16">
+      <c r="T137" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="138" spans="1:20" ht="15.6">
       <c r="A138" s="7" t="s">
         <v>221</v>
       </c>
       <c r="C138" s="8" t="s">
         <v>505</v>
       </c>
-      <c r="D138" s="9"/>
+      <c r="D138" s="9">
+        <v>2019</v>
+      </c>
       <c r="E138" s="12" t="s">
         <v>586</v>
       </c>
       <c r="S138" s="6"/>
-      <c r="T138" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="139" spans="1:20" ht="16">
+      <c r="T138" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="139" spans="1:20" ht="15.6">
       <c r="A139" s="7" t="s">
         <v>222</v>
       </c>
       <c r="C139" s="8" t="s">
         <v>506</v>
       </c>
-      <c r="D139" s="9"/>
+      <c r="D139" s="9">
+        <v>2019</v>
+      </c>
       <c r="E139" s="12" t="s">
         <v>585</v>
       </c>
       <c r="S139" s="6"/>
-      <c r="T139" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="140" spans="1:20" ht="16">
+      <c r="T139" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="140" spans="1:20" ht="15.6">
       <c r="A140" s="7" t="s">
         <v>223</v>
       </c>
       <c r="C140" s="8" t="s">
         <v>507</v>
       </c>
-      <c r="D140" s="9"/>
+      <c r="D140" s="9">
+        <v>2019</v>
+      </c>
       <c r="E140" s="12" t="s">
         <v>582</v>
       </c>
       <c r="S140" s="6"/>
-      <c r="T140" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="141" spans="1:20" ht="16">
+      <c r="T140" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="141" spans="1:20" ht="15.6">
       <c r="A141" s="7" t="s">
         <v>224</v>
       </c>
       <c r="C141" s="8" t="s">
         <v>508</v>
       </c>
-      <c r="D141" s="9"/>
+      <c r="D141" s="9">
+        <v>2019</v>
+      </c>
       <c r="E141" s="12" t="s">
         <v>582</v>
       </c>
       <c r="S141" s="6"/>
-      <c r="T141" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="142" spans="1:20" ht="16">
+      <c r="T141" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="142" spans="1:20" ht="15.6">
       <c r="A142" s="7" t="s">
         <v>225</v>
       </c>
       <c r="C142" s="8" t="s">
         <v>509</v>
       </c>
-      <c r="D142" s="9"/>
+      <c r="D142" s="9">
+        <v>2019</v>
+      </c>
       <c r="E142" s="12" t="s">
         <v>582</v>
       </c>
       <c r="S142" s="6"/>
-      <c r="T142" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="143" spans="1:20" ht="16">
+      <c r="T142" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="143" spans="1:20" ht="15.6">
       <c r="A143" s="7" t="s">
         <v>226</v>
       </c>
       <c r="C143" s="8" t="s">
         <v>510</v>
       </c>
-      <c r="D143" s="9"/>
+      <c r="D143" s="9">
+        <v>2019</v>
+      </c>
       <c r="E143" s="12" t="s">
         <v>583</v>
       </c>
       <c r="S143" s="6"/>
-      <c r="T143" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="144" spans="1:20" ht="16">
+      <c r="T143" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="144" spans="1:20" ht="15.6">
       <c r="A144" s="7" t="s">
         <v>227</v>
       </c>
       <c r="C144" s="8" t="s">
         <v>511</v>
       </c>
-      <c r="D144" s="9"/>
+      <c r="D144" s="9">
+        <v>2019</v>
+      </c>
       <c r="E144" s="12" t="s">
         <v>582</v>
       </c>
       <c r="S144" s="6"/>
-      <c r="T144" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="145" spans="1:20" ht="16">
+      <c r="T144" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="145" spans="1:20" ht="15.6">
       <c r="A145" s="7" t="s">
         <v>228</v>
       </c>
       <c r="C145" s="8" t="s">
         <v>512</v>
       </c>
-      <c r="D145" s="9"/>
+      <c r="D145" s="9">
+        <v>2019</v>
+      </c>
       <c r="E145" s="12" t="s">
         <v>582</v>
       </c>
       <c r="S145" s="6"/>
-      <c r="T145" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="146" spans="1:20" ht="16">
+      <c r="T145" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="146" spans="1:20" ht="15.6">
       <c r="A146" s="7" t="s">
         <v>229</v>
       </c>
       <c r="C146" s="8" t="s">
         <v>513</v>
       </c>
-      <c r="D146" s="9"/>
+      <c r="D146" s="9">
+        <v>2019</v>
+      </c>
       <c r="E146" s="12" t="s">
         <v>582</v>
       </c>
       <c r="S146" s="6"/>
-      <c r="T146" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="147" spans="1:20" ht="16">
+      <c r="T146" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="147" spans="1:20" ht="15.6">
       <c r="A147" s="7" t="s">
         <v>230</v>
       </c>
       <c r="C147" s="8" t="s">
         <v>514</v>
       </c>
-      <c r="D147" s="9"/>
+      <c r="D147" s="9">
+        <v>2019</v>
+      </c>
       <c r="E147" s="12" t="s">
         <v>587</v>
       </c>
       <c r="S147" s="6"/>
-      <c r="T147" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="148" spans="1:20" ht="16">
+      <c r="T147" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="148" spans="1:20" ht="15.6">
       <c r="A148" s="7" t="s">
         <v>231</v>
       </c>
       <c r="C148" s="8" t="s">
         <v>515</v>
       </c>
-      <c r="D148" s="9"/>
+      <c r="D148" s="9">
+        <v>2019</v>
+      </c>
       <c r="E148" s="12" t="s">
         <v>564</v>
       </c>
       <c r="S148" s="6"/>
-      <c r="T148" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="149" spans="1:20" ht="16">
+      <c r="T148" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="149" spans="1:20" ht="15.6">
       <c r="A149" s="7" t="s">
         <v>232</v>
       </c>
       <c r="C149" s="8" t="s">
         <v>516</v>
       </c>
-      <c r="D149" s="9"/>
+      <c r="D149" s="9">
+        <v>2019</v>
+      </c>
       <c r="E149" s="12" t="s">
         <v>564</v>
       </c>
       <c r="S149" s="6"/>
-      <c r="T149" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="150" spans="1:20" ht="16">
+      <c r="T149" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="150" spans="1:20" ht="15.6">
       <c r="A150" s="7" t="s">
         <v>233</v>
       </c>
       <c r="C150" s="8" t="s">
         <v>517</v>
       </c>
-      <c r="D150" s="9"/>
+      <c r="D150" s="9">
+        <v>2019</v>
+      </c>
       <c r="E150" s="12" t="s">
         <v>564</v>
       </c>
       <c r="S150" s="6"/>
-      <c r="T150" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="151" spans="1:20" ht="16">
+      <c r="T150" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="151" spans="1:20" ht="15.6">
       <c r="A151" s="7" t="s">
         <v>234</v>
       </c>
       <c r="C151" s="8" t="s">
         <v>518</v>
       </c>
-      <c r="D151" s="9"/>
+      <c r="D151" s="9">
+        <v>2019</v>
+      </c>
       <c r="E151" s="12" t="s">
         <v>564</v>
       </c>
       <c r="S151" s="6"/>
-      <c r="T151" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="152" spans="1:20" ht="16">
+      <c r="T151" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="152" spans="1:20" ht="15.6">
       <c r="A152" s="7" t="s">
         <v>235</v>
       </c>
       <c r="C152" s="8" t="s">
         <v>519</v>
       </c>
-      <c r="D152" s="9"/>
+      <c r="D152" s="9">
+        <v>2019</v>
+      </c>
       <c r="E152" s="12" t="s">
         <v>564</v>
       </c>
       <c r="S152" s="6"/>
-      <c r="T152" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="153" spans="1:20" ht="16">
+      <c r="T152" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="153" spans="1:20" ht="15.6">
       <c r="A153" s="7" t="s">
         <v>236</v>
       </c>
       <c r="C153" s="8" t="s">
         <v>520</v>
       </c>
-      <c r="D153" s="9"/>
+      <c r="D153" s="9">
+        <v>2019</v>
+      </c>
       <c r="E153" s="12" t="s">
         <v>564</v>
       </c>
       <c r="S153" s="6"/>
-      <c r="T153" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="154" spans="1:20" ht="16">
+      <c r="T153" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="154" spans="1:20" ht="15.6">
       <c r="A154" s="7" t="s">
         <v>237</v>
       </c>
       <c r="C154" s="8" t="s">
         <v>521</v>
       </c>
-      <c r="D154" s="9"/>
+      <c r="D154" s="9">
+        <v>2019</v>
+      </c>
       <c r="E154" s="12" t="s">
         <v>582</v>
       </c>
       <c r="S154" s="6"/>
-      <c r="T154" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="155" spans="1:20" ht="16">
+      <c r="T154" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="155" spans="1:20" ht="15.6">
       <c r="A155" s="7" t="s">
         <v>238</v>
       </c>
       <c r="C155" s="8" t="s">
         <v>522</v>
       </c>
-      <c r="D155" s="9"/>
+      <c r="D155" s="9">
+        <v>2019</v>
+      </c>
       <c r="E155" s="12" t="s">
         <v>586</v>
       </c>
       <c r="S155" s="6"/>
-      <c r="T155" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="156" spans="1:20" ht="16">
+      <c r="T155" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="156" spans="1:20" ht="15.6">
       <c r="A156" s="7" t="s">
         <v>239</v>
       </c>
       <c r="C156" s="8" t="s">
         <v>523</v>
       </c>
-      <c r="D156" s="9"/>
+      <c r="D156" s="9">
+        <v>2019</v>
+      </c>
       <c r="E156" s="12" t="s">
         <v>583</v>
       </c>
       <c r="S156" s="6"/>
-      <c r="T156" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="157" spans="1:20" ht="16">
+      <c r="T156" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="157" spans="1:20" ht="15.6">
       <c r="A157" s="7" t="s">
         <v>240</v>
       </c>
       <c r="C157" s="8" t="s">
         <v>524</v>
       </c>
-      <c r="D157" s="9"/>
+      <c r="D157" s="9">
+        <v>2019</v>
+      </c>
       <c r="E157" s="12" t="s">
         <v>564</v>
       </c>
       <c r="S157" s="6"/>
-      <c r="T157" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="158" spans="1:20" ht="16">
+      <c r="T157" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="158" spans="1:20" ht="15.6">
       <c r="A158" s="7" t="s">
         <v>241</v>
       </c>
       <c r="C158" s="8" t="s">
         <v>525</v>
       </c>
-      <c r="D158" s="9"/>
+      <c r="D158" s="9">
+        <v>2019</v>
+      </c>
       <c r="E158" s="12" t="s">
         <v>587</v>
       </c>
       <c r="S158" s="6"/>
-      <c r="T158" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="159" spans="1:20" ht="16">
+      <c r="T158" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="159" spans="1:20" ht="15.6">
       <c r="A159" s="7" t="s">
         <v>242</v>
       </c>
       <c r="C159" s="8" t="s">
         <v>526</v>
       </c>
-      <c r="D159" s="9"/>
+      <c r="D159" s="9">
+        <v>2019</v>
+      </c>
       <c r="E159" s="12" t="s">
         <v>582</v>
       </c>
       <c r="S159" s="6"/>
-      <c r="T159" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="160" spans="1:20" ht="16">
+      <c r="T159" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="160" spans="1:20" ht="15.6">
       <c r="A160" s="7" t="s">
         <v>243</v>
       </c>
       <c r="C160" s="8" t="s">
         <v>527</v>
       </c>
-      <c r="D160" s="9"/>
+      <c r="D160" s="9">
+        <v>2019</v>
+      </c>
       <c r="E160" s="12" t="s">
         <v>585</v>
       </c>
       <c r="S160" s="6"/>
-      <c r="T160" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="161" spans="1:20" ht="16">
+      <c r="T160" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="161" spans="1:20" ht="15.6">
       <c r="A161" s="7" t="s">
         <v>244</v>
       </c>
       <c r="C161" s="8" t="s">
         <v>528</v>
       </c>
-      <c r="D161" s="9"/>
+      <c r="D161" s="9">
+        <v>2019</v>
+      </c>
       <c r="E161" s="12" t="s">
         <v>585</v>
       </c>
       <c r="S161" s="6"/>
-      <c r="T161" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="162" spans="1:20" ht="16">
+      <c r="T161" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="162" spans="1:20" ht="15.6">
       <c r="A162" s="7" t="s">
         <v>245</v>
       </c>
       <c r="C162" s="8" t="s">
         <v>529</v>
       </c>
-      <c r="D162" s="9"/>
+      <c r="D162" s="9">
+        <v>2019</v>
+      </c>
       <c r="E162" s="12" t="s">
         <v>564</v>
       </c>
       <c r="S162" s="6"/>
-      <c r="T162" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="163" spans="1:20" ht="16">
+      <c r="T162" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="163" spans="1:20" ht="15.6">
       <c r="A163" s="7" t="s">
         <v>246</v>
       </c>
       <c r="C163" s="8" t="s">
         <v>530</v>
       </c>
-      <c r="D163" s="9"/>
+      <c r="D163" s="9">
+        <v>2019</v>
+      </c>
       <c r="E163" s="12" t="s">
         <v>584</v>
       </c>
       <c r="S163" s="6"/>
-      <c r="T163" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="164" spans="1:20" ht="16">
+      <c r="T163" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="164" spans="1:20" ht="15.6">
       <c r="A164" s="7" t="s">
         <v>247</v>
       </c>
       <c r="C164" s="8" t="s">
         <v>531</v>
       </c>
-      <c r="D164" s="9"/>
+      <c r="D164" s="9">
+        <v>2019</v>
+      </c>
       <c r="E164" s="12" t="s">
         <v>583</v>
       </c>
       <c r="S164" s="6"/>
-      <c r="T164" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="165" spans="1:20" ht="16">
+      <c r="T164" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="165" spans="1:20" ht="15.6">
       <c r="A165" s="7" t="s">
         <v>248</v>
       </c>
       <c r="C165" s="8" t="s">
         <v>532</v>
       </c>
-      <c r="D165" s="9"/>
+      <c r="D165" s="9">
+        <v>2019</v>
+      </c>
       <c r="E165" s="12" t="s">
         <v>587</v>
       </c>
       <c r="S165" s="6"/>
-      <c r="T165" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="166" spans="1:20" ht="16">
+      <c r="T165" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="166" spans="1:20" ht="15.6">
       <c r="A166" s="7" t="s">
         <v>249</v>
       </c>
       <c r="C166" s="8" t="s">
         <v>533</v>
       </c>
-      <c r="D166" s="9"/>
+      <c r="D166" s="9">
+        <v>2019</v>
+      </c>
       <c r="E166" s="12" t="s">
         <v>583</v>
       </c>
       <c r="S166" s="6"/>
-      <c r="T166" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="167" spans="1:20" ht="16">
+      <c r="T166" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="167" spans="1:20" ht="15.6">
       <c r="A167" s="7" t="s">
         <v>250</v>
       </c>
       <c r="C167" s="8" t="s">
         <v>534</v>
       </c>
-      <c r="D167" s="9"/>
+      <c r="D167" s="9">
+        <v>2019</v>
+      </c>
       <c r="E167" s="12" t="s">
         <v>582</v>
       </c>
       <c r="S167" s="6"/>
-      <c r="T167" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="168" spans="1:20" ht="16">
+      <c r="T167" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="168" spans="1:20" ht="15.6">
       <c r="A168" s="7" t="s">
         <v>251</v>
       </c>
       <c r="C168" s="8" t="s">
         <v>535</v>
       </c>
-      <c r="D168" s="9"/>
+      <c r="D168" s="9">
+        <v>2019</v>
+      </c>
       <c r="E168" s="12" t="s">
         <v>584</v>
       </c>
       <c r="S168" s="6"/>
-      <c r="T168" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="169" spans="1:20" ht="16">
+      <c r="T168" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="169" spans="1:20" ht="15.6">
       <c r="A169" s="7" t="s">
         <v>252</v>
       </c>
       <c r="C169" s="8" t="s">
         <v>536</v>
       </c>
-      <c r="D169" s="9"/>
+      <c r="D169" s="9">
+        <v>2019</v>
+      </c>
       <c r="E169" s="12" t="s">
         <v>586</v>
       </c>
       <c r="S169" s="6"/>
-      <c r="T169" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="170" spans="1:20" ht="16">
+      <c r="T169" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="170" spans="1:20" ht="15.6">
       <c r="A170" s="7" t="s">
         <v>253</v>
       </c>
       <c r="C170" s="8" t="s">
         <v>537</v>
       </c>
-      <c r="D170" s="9"/>
+      <c r="D170" s="9">
+        <v>2019</v>
+      </c>
       <c r="E170" s="12" t="s">
         <v>584</v>
       </c>
       <c r="S170" s="6"/>
-      <c r="T170" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="171" spans="1:20" ht="16">
+      <c r="T170" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="171" spans="1:20" ht="15.6">
       <c r="A171" s="7" t="s">
         <v>254</v>
       </c>
       <c r="C171" s="8" t="s">
         <v>538</v>
       </c>
-      <c r="D171" s="9"/>
+      <c r="D171" s="9">
+        <v>2019</v>
+      </c>
       <c r="E171" s="12" t="s">
         <v>585</v>
       </c>
       <c r="S171" s="6"/>
-      <c r="T171" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="172" spans="1:20" ht="16">
+      <c r="T171" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="172" spans="1:20" ht="15.6">
       <c r="A172" s="7" t="s">
         <v>255</v>
       </c>
       <c r="C172" s="8" t="s">
         <v>539</v>
       </c>
-      <c r="D172" s="9"/>
+      <c r="D172" s="9">
+        <v>2019</v>
+      </c>
       <c r="E172" s="12" t="s">
         <v>583</v>
       </c>
       <c r="S172" s="6"/>
-      <c r="T172" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="173" spans="1:20" ht="16">
+      <c r="T172" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="173" spans="1:20" ht="15.6">
       <c r="A173" s="7" t="s">
         <v>256</v>
       </c>
       <c r="C173" s="8" t="s">
         <v>540</v>
       </c>
-      <c r="D173" s="9"/>
+      <c r="D173" s="9">
+        <v>2019</v>
+      </c>
       <c r="E173" s="12" t="s">
         <v>586</v>
       </c>
       <c r="S173" s="6"/>
-      <c r="T173" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="174" spans="1:20" ht="16">
+      <c r="T173" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="174" spans="1:20" ht="15.6">
       <c r="A174" s="7" t="s">
         <v>257</v>
       </c>
       <c r="C174" s="8" t="s">
         <v>541</v>
       </c>
-      <c r="D174" s="9"/>
+      <c r="D174" s="9">
+        <v>2019</v>
+      </c>
       <c r="E174" s="12" t="s">
         <v>585</v>
       </c>
       <c r="S174" s="6"/>
-      <c r="T174" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="175" spans="1:20" ht="16">
+      <c r="T174" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="175" spans="1:20" ht="15.6">
       <c r="A175" s="7" t="s">
         <v>258</v>
       </c>
       <c r="C175" s="8" t="s">
         <v>542</v>
       </c>
-      <c r="D175" s="9"/>
+      <c r="D175" s="9">
+        <v>2019</v>
+      </c>
       <c r="E175" s="12" t="s">
         <v>582</v>
       </c>
       <c r="S175" s="6"/>
-      <c r="T175" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="176" spans="1:20" ht="16">
+      <c r="T175" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="176" spans="1:20" ht="15.6">
       <c r="A176" s="7" t="s">
         <v>259</v>
       </c>
       <c r="C176" s="8" t="s">
         <v>543</v>
       </c>
-      <c r="D176" s="9"/>
+      <c r="D176" s="9">
+        <v>2019</v>
+      </c>
       <c r="E176" s="12" t="s">
         <v>582</v>
       </c>
       <c r="S176" s="6"/>
-      <c r="T176" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="177" spans="1:20" ht="16">
+      <c r="T176" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="177" spans="1:20" ht="15.6">
       <c r="A177" s="7" t="s">
         <v>260</v>
       </c>
       <c r="C177" s="8" t="s">
         <v>544</v>
       </c>
-      <c r="D177" s="9"/>
+      <c r="D177" s="9">
+        <v>2019</v>
+      </c>
       <c r="E177" s="12" t="s">
         <v>587</v>
       </c>
       <c r="S177" s="6"/>
-      <c r="T177" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="178" spans="1:20" ht="16">
+      <c r="T177" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="178" spans="1:20" ht="15.6">
       <c r="A178" s="7" t="s">
         <v>261</v>
       </c>
       <c r="C178" s="8" t="s">
         <v>545</v>
       </c>
-      <c r="D178" s="9"/>
+      <c r="D178" s="9">
+        <v>2019</v>
+      </c>
       <c r="E178" s="12" t="s">
         <v>564</v>
       </c>
       <c r="S178" s="6"/>
-      <c r="T178" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="179" spans="1:20" ht="16">
+      <c r="T178" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="179" spans="1:20" ht="15.6">
       <c r="A179" s="7" t="s">
         <v>262</v>
       </c>
       <c r="C179" s="8" t="s">
         <v>546</v>
       </c>
-      <c r="D179" s="9"/>
+      <c r="D179" s="9">
+        <v>2019</v>
+      </c>
       <c r="E179" s="12" t="s">
         <v>564</v>
       </c>
       <c r="S179" s="6"/>
-      <c r="T179" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="180" spans="1:20" ht="16">
+      <c r="T179" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="180" spans="1:20" ht="15.6">
       <c r="A180" s="7" t="s">
         <v>263</v>
       </c>
       <c r="C180" s="8" t="s">
         <v>547</v>
       </c>
-      <c r="D180" s="9"/>
+      <c r="D180" s="9">
+        <v>2019</v>
+      </c>
       <c r="E180" s="12" t="s">
         <v>582</v>
       </c>
       <c r="S180" s="6"/>
-      <c r="T180" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="181" spans="1:20" ht="16">
+      <c r="T180" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="181" spans="1:20" ht="15.6">
       <c r="A181" s="7" t="s">
         <v>264</v>
       </c>
       <c r="C181" s="8" t="s">
         <v>548</v>
       </c>
-      <c r="D181" s="9"/>
+      <c r="D181" s="9">
+        <v>2019</v>
+      </c>
       <c r="E181" s="12" t="s">
         <v>582</v>
       </c>
       <c r="S181" s="6"/>
-      <c r="T181" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="182" spans="1:20" ht="16">
+      <c r="T181" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="182" spans="1:20" ht="15.6">
       <c r="A182" s="7" t="s">
         <v>265</v>
       </c>
       <c r="C182" s="8" t="s">
         <v>549</v>
       </c>
-      <c r="D182" s="9"/>
+      <c r="D182" s="9">
+        <v>2019</v>
+      </c>
       <c r="E182" s="12" t="s">
         <v>586</v>
       </c>
       <c r="S182" s="6"/>
-      <c r="T182" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="183" spans="1:20" ht="16">
+      <c r="T182" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="183" spans="1:20" ht="15.6">
       <c r="A183" s="7" t="s">
         <v>266</v>
       </c>
       <c r="C183" s="8" t="s">
         <v>550</v>
       </c>
-      <c r="D183" s="9"/>
+      <c r="D183" s="9">
+        <v>2019</v>
+      </c>
       <c r="E183" s="12" t="s">
         <v>564</v>
       </c>
       <c r="S183" s="6"/>
-      <c r="T183" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="184" spans="1:20" ht="16">
+      <c r="T183" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="184" spans="1:20" ht="15.6">
       <c r="A184" s="7" t="s">
         <v>267</v>
       </c>
       <c r="C184" s="8" t="s">
         <v>551</v>
       </c>
-      <c r="D184" s="9"/>
+      <c r="D184" s="9">
+        <v>2019</v>
+      </c>
       <c r="E184" s="12" t="s">
         <v>586</v>
       </c>
       <c r="S184" s="6"/>
-      <c r="T184" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="185" spans="1:20" ht="16">
+      <c r="T184" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="185" spans="1:20" ht="15.6">
       <c r="A185" s="7" t="s">
         <v>268</v>
       </c>
       <c r="C185" s="8" t="s">
         <v>552</v>
       </c>
-      <c r="D185" s="9"/>
+      <c r="D185" s="9">
+        <v>2019</v>
+      </c>
       <c r="E185" s="12" t="s">
         <v>583</v>
       </c>
       <c r="S185" s="6"/>
-      <c r="T185" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="186" spans="1:20" ht="16">
+      <c r="T185" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="186" spans="1:20" ht="15.6">
       <c r="A186" s="7" t="s">
         <v>269</v>
       </c>
       <c r="C186" s="8" t="s">
         <v>553</v>
       </c>
-      <c r="D186" s="9"/>
+      <c r="D186" s="9">
+        <v>2019</v>
+      </c>
       <c r="E186" s="12" t="s">
         <v>582</v>
       </c>
       <c r="S186" s="6"/>
-      <c r="T186" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="187" spans="1:20" ht="16">
+      <c r="T186" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="187" spans="1:20" ht="15.6">
       <c r="A187" s="7" t="s">
         <v>270</v>
       </c>
       <c r="C187" s="8" t="s">
         <v>554</v>
       </c>
-      <c r="D187" s="9"/>
+      <c r="D187" s="9">
+        <v>2019</v>
+      </c>
       <c r="E187" s="12" t="s">
         <v>582</v>
       </c>
       <c r="S187" s="6"/>
-      <c r="T187" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="188" spans="1:20" ht="16">
+      <c r="T187" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="188" spans="1:20" ht="15.6">
       <c r="A188" s="7" t="s">
         <v>271</v>
       </c>
       <c r="C188" s="8" t="s">
         <v>555</v>
       </c>
-      <c r="D188" s="9"/>
+      <c r="D188" s="9">
+        <v>2019</v>
+      </c>
       <c r="E188" s="12" t="s">
         <v>582</v>
       </c>
       <c r="S188" s="6"/>
-      <c r="T188" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="189" spans="1:20" ht="16">
+      <c r="T188" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="189" spans="1:20" ht="15.6">
       <c r="A189" s="7" t="s">
         <v>272</v>
       </c>
       <c r="C189" s="8" t="s">
         <v>556</v>
       </c>
-      <c r="D189" s="9"/>
+      <c r="D189" s="9">
+        <v>2019</v>
+      </c>
       <c r="E189" s="12" t="s">
         <v>585</v>
       </c>
       <c r="S189" s="6"/>
-      <c r="T189" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="190" spans="1:20" ht="16">
+      <c r="T189" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="190" spans="1:20" ht="15.6">
       <c r="A190" s="7" t="s">
         <v>273</v>
       </c>
       <c r="C190" s="8" t="s">
         <v>557</v>
       </c>
-      <c r="D190" s="9"/>
+      <c r="D190" s="9">
+        <v>2019</v>
+      </c>
       <c r="E190" s="12" t="s">
         <v>586</v>
       </c>
       <c r="S190" s="6"/>
-      <c r="T190" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="191" spans="1:20" ht="16">
+      <c r="T190" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="191" spans="1:20" ht="15.6">
       <c r="A191" s="7" t="s">
         <v>274</v>
       </c>
       <c r="C191" s="8" t="s">
         <v>558</v>
       </c>
-      <c r="D191" s="9"/>
+      <c r="D191" s="9">
+        <v>2019</v>
+      </c>
       <c r="E191" s="12" t="s">
         <v>564</v>
       </c>
       <c r="S191" s="6"/>
-      <c r="T191" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="192" spans="1:20" ht="16">
+      <c r="T191" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="192" spans="1:20" ht="15.6">
       <c r="A192" s="7" t="s">
         <v>275</v>
       </c>
       <c r="C192" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="D192" s="9"/>
+      <c r="D192" s="9">
+        <v>2019</v>
+      </c>
       <c r="E192" s="12" t="s">
         <v>583</v>
       </c>
       <c r="S192" s="6"/>
-      <c r="T192" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="193" spans="1:20" ht="16">
+      <c r="T192" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="193" spans="1:20" ht="15.6">
       <c r="A193" s="7" t="s">
         <v>276</v>
       </c>
       <c r="C193" s="8" t="s">
         <v>560</v>
       </c>
-      <c r="D193" s="9"/>
+      <c r="D193" s="9">
+        <v>2019</v>
+      </c>
       <c r="E193" s="12" t="s">
         <v>582</v>
       </c>
       <c r="S193" s="6"/>
-      <c r="T193" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="194" spans="1:20" ht="16">
+      <c r="T193" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="194" spans="1:20" ht="15.6">
       <c r="A194" s="7" t="s">
         <v>277</v>
       </c>
       <c r="C194" s="8" t="s">
         <v>561</v>
       </c>
-      <c r="D194" s="9"/>
+      <c r="D194" s="9">
+        <v>2019</v>
+      </c>
       <c r="E194" s="12" t="s">
         <v>583</v>
       </c>
       <c r="S194" s="6"/>
-      <c r="T194" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="195" spans="1:20" ht="16">
+      <c r="T194" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="195" spans="1:20" ht="15.6">
       <c r="A195" s="7" t="s">
         <v>278</v>
       </c>
       <c r="C195" s="8" t="s">
         <v>562</v>
       </c>
-      <c r="D195" s="9"/>
+      <c r="D195" s="9">
+        <v>2019</v>
+      </c>
       <c r="E195" s="12" t="s">
         <v>586</v>
       </c>
       <c r="S195" s="6"/>
-      <c r="T195" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="196" spans="1:20" ht="16">
+      <c r="T195" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="196" spans="1:20" ht="15.6">
       <c r="A196" s="7" t="s">
         <v>279</v>
       </c>
       <c r="C196" s="8" t="s">
         <v>563</v>
       </c>
-      <c r="D196" s="9"/>
+      <c r="D196" s="9">
+        <v>2019</v>
+      </c>
       <c r="E196" s="12" t="s">
         <v>587</v>
       </c>
-      <c r="T196" s="29" t="s">
+      <c r="T196" s="28" t="s">
         <v>590</v>
       </c>
     </row>
@@ -5825,6 +6216,7 @@
       <c r="E197" s="12"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AJ1" xr:uid="{35298B1C-90FF-4C21-B496-D9F98CCB7FE4}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -5838,21 +6230,21 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.83203125" customWidth="1"/>
-    <col min="11" max="11" width="21.1640625" customWidth="1"/>
-    <col min="18" max="18" width="20.1640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="89.1640625" customWidth="1"/>
-    <col min="20" max="20" width="33.5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.77734375" customWidth="1"/>
+    <col min="11" max="11" width="21.109375" customWidth="1"/>
+    <col min="18" max="18" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="89.109375" customWidth="1"/>
+    <col min="20" max="20" width="33.44140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="27.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
@@ -13428,11 +13820,11 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="40.1640625" customWidth="1"/>
-    <col min="2" max="2" width="26.1640625" customWidth="1"/>
-    <col min="3" max="3" width="35.83203125" customWidth="1"/>
+    <col min="1" max="1" width="40.109375" customWidth="1"/>
+    <col min="2" max="2" width="26.109375" customWidth="1"/>
+    <col min="3" max="3" width="35.77734375" customWidth="1"/>
     <col min="4" max="4" width="35" customWidth="1"/>
   </cols>
   <sheetData>
@@ -13927,59 +14319,61 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD6C7E77-FF0A-E84A-99FE-DC85AB833D10}">
   <dimension ref="A1:H229"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="20.6640625" customWidth="1"/>
     <col min="2" max="2" width="40" style="12" customWidth="1"/>
-    <col min="3" max="3" width="21.5" style="10" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" style="10" customWidth="1"/>
     <col min="4" max="4" width="25" style="10" customWidth="1"/>
-    <col min="5" max="5" width="46.1640625" style="10" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" style="23" customWidth="1"/>
-    <col min="7" max="7" width="36.5" style="12" customWidth="1"/>
-    <col min="8" max="8" width="10.83203125" style="12"/>
+    <col min="5" max="5" width="46.109375" style="10" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" style="22" customWidth="1"/>
+    <col min="7" max="7" width="36.44140625" style="12" customWidth="1"/>
+    <col min="8" max="8" width="10.77734375" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="120">
+    <row r="1" spans="1:7" ht="138">
       <c r="A1" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="29" t="s">
         <v>565</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>566</v>
       </c>
-      <c r="G1" s="25" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="122" customHeight="1">
-      <c r="B2" s="22" t="s">
+      <c r="G1" s="24" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="121.95" customHeight="1">
+      <c r="B2" s="21" t="s">
         <v>568</v>
       </c>
       <c r="D2" s="18"/>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="25" t="s">
         <v>567</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="26" t="s">
         <v>570</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="24" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="16">
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="28"/>
+    <row r="3" spans="1:7" ht="15.6">
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="27"/>
       <c r="G3" s="13"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="F4" s="24"/>
+      <c r="F4" s="23"/>
     </row>
     <row r="5" spans="1:7">
       <c r="C5" s="11"/>
@@ -17346,60 +17740,60 @@
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="16">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:1" ht="15.6">
+      <c r="A1" s="20" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="16">
-      <c r="A2" s="21"/>
-    </row>
-    <row r="3" spans="1:1" ht="16">
-      <c r="A3" s="21" t="s">
+    <row r="2" spans="1:1" ht="15.6">
+      <c r="A2" s="20"/>
+    </row>
+    <row r="3" spans="1:1" ht="15.6">
+      <c r="A3" s="20" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="16">
-      <c r="A4" s="21"/>
-    </row>
-    <row r="5" spans="1:1" ht="16">
-      <c r="A5" s="21" t="s">
+    <row r="4" spans="1:1" ht="15.6">
+      <c r="A4" s="20"/>
+    </row>
+    <row r="5" spans="1:1" ht="15.6">
+      <c r="A5" s="20" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="16">
-      <c r="A6" s="21"/>
-    </row>
-    <row r="7" spans="1:1" ht="16">
-      <c r="A7" s="21" t="s">
+    <row r="6" spans="1:1" ht="15.6">
+      <c r="A6" s="20"/>
+    </row>
+    <row r="7" spans="1:1" ht="15.6">
+      <c r="A7" s="20" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="16">
-      <c r="A8" s="21"/>
-    </row>
-    <row r="9" spans="1:1" ht="16">
-      <c r="A9" s="21" t="s">
+    <row r="8" spans="1:1" ht="15.6">
+      <c r="A8" s="20"/>
+    </row>
+    <row r="9" spans="1:1" ht="15.6">
+      <c r="A9" s="20" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="16">
-      <c r="A10" s="21"/>
-    </row>
-    <row r="11" spans="1:1" ht="16">
-      <c r="A11" s="21" t="s">
+    <row r="10" spans="1:1" ht="15.6">
+      <c r="A10" s="20"/>
+    </row>
+    <row r="11" spans="1:1" ht="15.6">
+      <c r="A11" s="20" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="16">
-      <c r="A12" s="21" t="s">
+    <row r="12" spans="1:1" ht="15.6">
+      <c r="A12" s="20" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="16">
-      <c r="A13" s="21" t="s">
+    <row r="13" spans="1:1" ht="15.6">
+      <c r="A13" s="20" t="s">
         <v>578</v>
       </c>
     </row>
@@ -17408,8 +17802,8 @@
         <v>579</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="16">
-      <c r="A15" s="21" t="s">
+    <row r="15" spans="1:1" ht="15.6">
+      <c r="A15" s="20" t="s">
         <v>580</v>
       </c>
     </row>
@@ -17434,12 +17828,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C6C00DC80E9FED4596C9F6D7CDDD6042" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5eeea28be7a11a4fc7601b4d531de3e8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="48b2e3f7-b09f-47ae-8574-fd5d5ffa6be8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="801409e539578746097a67e8a71a3340" ns2:_="">
     <xsd:import namespace="48b2e3f7-b09f-47ae-8574-fd5d5ffa6be8"/>
@@ -17611,7 +17999,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -17620,23 +18008,13 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44D4A413-FCE6-452E-998A-26A273C51DAD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="48b2e3f7-b09f-47ae-8574-fd5d5ffa6be8"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6322EC08-7F15-4758-B157-ECD15CFD93D4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -17654,10 +18032,26 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6962EFDB-3713-4253-9AC6-1F6EE91D9C4E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44D4A413-FCE6-452E-998A-26A273C51DAD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="48b2e3f7-b09f-47ae-8574-fd5d5ffa6be8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>